--- a/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_010_ITALY.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_010_ITALY.xlsx
@@ -17,9 +17,6 @@
     <sheet name="ResiduesMayNov" sheetId="24" r:id="rId8"/>
     <sheet name="CCTResidues" sheetId="30" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Currency</t>
   </si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>CCT EU 2018-04 RESIDUE</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -661,22 +661,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1053,9 +1037,8 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\020_Quotes\</v>
+      <c r="D8" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1195,12 +1178,12 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_CCTs.xml</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="22" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D20),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>14</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="23"/>
@@ -1604,12 +1587,12 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_BTPs.xml</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="22" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D102),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>76</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="23"/>

--- a/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_010_ITALY.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/020_Quotes/EUR_010_ITALY.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Currency</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>CCT EU 2018-04 RESIDUE</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1034,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\020_Quotes\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1179,12 +1177,12 @@
         <v>EUR_010_CCTs.xml</v>
       </c>
       <c r="D2" s="22" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D20),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="31" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D20),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -1468,9 +1466,9 @@
         <f>IF(ISNA(C17),NA(),_xll.qlSimpleQuote(C17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="33" t="str">
+      <c r="E17" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F17" s="23"/>
     </row>
@@ -1487,9 +1485,9 @@
         <f>IF(ISNA(C18),NA(),_xll.qlSimpleQuote(C18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="33" t="str">
+      <c r="E18" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F18" s="23"/>
     </row>
@@ -1506,9 +1504,9 @@
         <f>IF(ISNA(C19),NA(),_xll.qlSimpleQuote(C19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="33" t="str">
+      <c r="E19" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F19" s="23"/>
     </row>
@@ -1525,9 +1523,9 @@
         <f>IF(ISNA(C20),NA(),_xll.qlSimpleQuote(C20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="33" t="str">
+      <c r="E20" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F20" s="23"/>
     </row>
@@ -1588,12 +1586,12 @@
         <v>EUR_010_BTPs.xml</v>
       </c>
       <c r="D2" s="22" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D102),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="31" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D102),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -3434,13 +3432,13 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_BTPInflation.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D12,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D12,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -3684,13 +3682,13 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_BTPCouponsFebAug.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D64),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
-      </c>
-      <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D64),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -4872,13 +4870,13 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_BTPCouponsMayNov.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D47),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>43</v>
-      </c>
-      <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(D3:D47),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -5707,9 +5705,9 @@
         <f>IF(ISNA(B46),NA(),_xll.qlSimpleQuote(C46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E46" s="33" t="str">
+      <c r="E46" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D46)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F46" s="23"/>
     </row>
@@ -5726,9 +5724,9 @@
         <f>IF(ISNA(B47),NA(),_xll.qlSimpleQuote(C47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E47" s="33" t="str">
+      <c r="E47" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D47)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F47" s="23"/>
     </row>
@@ -5788,13 +5786,13 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_BTPResiduesFebAug.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(C3:D24),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>40</v>
-      </c>
-      <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(C3:D24),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -6186,9 +6184,9 @@
         <f>IF(ISNA(B23),NA(),_xll.qlSimpleQuote($B23&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="33" t="str">
+      <c r="E23" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -6205,9 +6203,9 @@
         <f>IF(ISNA(B24),NA(),_xll.qlSimpleQuote($B24&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="33" t="str">
+      <c r="E24" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F24" s="23"/>
     </row>
@@ -6267,13 +6265,13 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_BTPResiduesMayNov.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(C3:D10),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
-      </c>
-      <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(C3:D10),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -6399,9 +6397,9 @@
         <f>IF(ISNA(B9),NA(),_xll.qlSimpleQuote($B9&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="33" t="str">
+      <c r="E9" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F9" s="23"/>
     </row>
@@ -6418,9 +6416,9 @@
         <f>IF(ISNA(B10),NA(),_xll.qlSimpleQuote($B10&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="33" t="str">
+      <c r="E10" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F10" s="23"/>
     </row>
@@ -6480,13 +6478,13 @@
         <f>Currency&amp;"_"&amp;C1&amp;".xml"</f>
         <v>EUR_010_CCTResidues.xml</v>
       </c>
-      <c r="D2" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(C3:D9),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>6</v>
-      </c>
-      <c r="E2" s="31" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+      <c r="D2" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(C3:D9),SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="31" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -6561,9 +6559,9 @@
         <f>IF(ISNA(B6),NA(),_xll.qlSimpleQuote($B6&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E6" s="33" t="str">
+      <c r="E6" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="23"/>
     </row>
@@ -6581,9 +6579,9 @@
         <f>IF(ISNA(B7),NA(),_xll.qlSimpleQuote($B7&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E7" s="33" t="str">
+      <c r="E7" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F7" s="23"/>
     </row>
@@ -6601,9 +6599,9 @@
         <f>IF(ISNA(B8),NA(),_xll.qlSimpleQuote($B8&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E8" s="33" t="str">
+      <c r="E8" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F8" s="23"/>
     </row>
@@ -6621,9 +6619,9 @@
         <f>IF(ISNA(B9),NA(),_xll.qlSimpleQuote($B9&amp;"ResPrem"&amp;QuoteSuffix,0,PriceTickValue,Permanent,Trigger,ObjectOverwrite))</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="33" t="str">
+      <c r="E9" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F9" s="23"/>
     </row>
